--- a/Documents/OppCodes.xlsx
+++ b/Documents/OppCodes.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\Gameboy emulator project\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA6DF99-1DE5-4572-BB3F-F2003129AFCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
-    <sheet name="Bootrom instructions" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Fundimental Groups" sheetId="3" r:id="rId1"/>
+    <sheet name="Bootrom instructions" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Matthew</author>
   </authors>
   <commentList>
-    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{C7BBB2E8-3F67-40A0-93D2-74000AD47E33}">
+    <comment ref="J6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG24" authorId="0" shapeId="0" xr:uid="{6E91F200-96EE-4B7E-BFD3-B74168792B2E}">
+    <comment ref="AG24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I27" authorId="0" shapeId="0" xr:uid="{E90338D8-72DE-4BA0-B18E-C552EDD8CB9A}">
+    <comment ref="I27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{92EA847B-8EC3-4C24-B92A-1C5D48D63CA5}">
+    <comment ref="C30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R33" authorId="0" shapeId="0" xr:uid="{5138DEFF-BDBB-4164-912A-1DDFC42EA2A2}">
+    <comment ref="R33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q36" authorId="0" shapeId="0" xr:uid="{B72A5A05-5B06-4263-9247-B0F679AE3133}">
+    <comment ref="Q36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D39" authorId="0" shapeId="0" xr:uid="{EB0289B9-4887-482C-9160-426DED417F4E}">
+    <comment ref="D39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L39" authorId="0" shapeId="0" xr:uid="{7FDEAB31-EF04-43FA-9BE9-17EEB7DBFD61}">
+    <comment ref="L39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P39" authorId="0" shapeId="0" xr:uid="{5D76DDB2-9526-406C-8FE0-6FE1CA1ACAB3}">
+    <comment ref="P39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C45" authorId="0" shapeId="0" xr:uid="{98D998A4-B14A-4B84-B3F0-1FBF833992B8}">
+    <comment ref="C45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E45" authorId="0" shapeId="0" xr:uid="{C2EF3941-6F27-4210-8F86-7885A3631637}">
+    <comment ref="E45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M45" authorId="0" shapeId="0" xr:uid="{2517753B-5621-4D3D-B502-E41460E7E205}">
+    <comment ref="M45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -320,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{70886BA8-3183-462F-BFC6-5BEE35664685}">
+    <comment ref="C48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -344,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q48" authorId="0" shapeId="0" xr:uid="{FBB4299A-91B1-4A9D-BE26-61F6495AE8C2}">
+    <comment ref="Q48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -373,7 +368,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4702" uniqueCount="567">
   <si>
     <t> x0 </t>
   </si>
@@ -2071,13 +2066,16 @@
   </si>
   <si>
     <t>SET 7,A</t>
+  </si>
+  <si>
+    <t>LD 8 bit register to register</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2119,7 +2117,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2180,6 +2178,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2193,7 +2203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2225,9 +2235,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2247,6 +2254,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2313,7 +2333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2348,7 +2368,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2525,23 +2545,4964 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650E09FE-6AF2-478D-B62E-BE06D2ACABB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:AM50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:39">
+      <c r="B2" s="20"/>
+      <c r="C2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM2" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:39" ht="22.5">
+      <c r="E3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="AM3" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="2:39">
+      <c r="E4" s="18"/>
+      <c r="F4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" s="10"/>
+      <c r="X4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL4" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM4" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:39">
+      <c r="E5" s="18"/>
+      <c r="F5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" s="10"/>
+      <c r="X5" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AG5" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AK5" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL5" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AM5" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="2:39" ht="22.5">
+      <c r="E6" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="T6" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE6" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF6" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="AG6" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="AI6" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="AK6" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="AL6" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="AM6" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="2:39">
+      <c r="E7" s="18"/>
+      <c r="F7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" s="10"/>
+      <c r="X7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD7" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL7" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM7" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:39">
+      <c r="E8" s="18"/>
+      <c r="F8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="W8" s="10"/>
+      <c r="X8" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AD8" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE8" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF8" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AG8" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AH8" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AI8" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AJ8" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AK8" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL8" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AM8" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="2:39" ht="22.5">
+      <c r="E9" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="T9" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="U9" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="AC9" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="AD9" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="AE9" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="AF9" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="AG9" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="AH9" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="AI9" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="AJ9" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="AK9" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="AL9" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="AM9" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="2:39">
+      <c r="E10" s="18"/>
+      <c r="F10" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="U10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="W10" s="10"/>
+      <c r="X10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD10" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL10" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM10" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:39">
+      <c r="E11" s="18"/>
+      <c r="F11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="T11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="W11" s="10"/>
+      <c r="X11" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB11" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC11" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AD11" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE11" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF11" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG11" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH11" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI11" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ11" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AK11" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL11" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM11" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="2:39" ht="22.5">
+      <c r="E12" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="T12" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="U12" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="W12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="X12" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC12" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="AD12" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE12" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="AF12" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="AG12" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH12" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="AI12" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="AJ12" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="AK12" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="AL12" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="AM12" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="2:39">
+      <c r="E13" s="18"/>
+      <c r="F13" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="T13" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="U13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="W13" s="10"/>
+      <c r="X13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD13" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL13" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM13" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:39">
+      <c r="E14" s="18"/>
+      <c r="F14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="U14" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="W14" s="10"/>
+      <c r="X14" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC14" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD14" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE14" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF14" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AG14" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AH14" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AI14" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AJ14" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AK14" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL14" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AM14" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" spans="2:39" ht="22.5">
+      <c r="E15" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="R15" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="S15" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="T15" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="U15" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="W15" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG15" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="AH15" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="AI15" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK15" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="AL15" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="AM15" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="2:39">
+      <c r="E16" s="18"/>
+      <c r="F16" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="S16" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="T16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U16" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="W16" s="10"/>
+      <c r="X16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD16" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL16" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM16" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="5:39">
+      <c r="E17" s="18"/>
+      <c r="F17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="T17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="W17" s="10"/>
+      <c r="X17" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA17" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AB17" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC17" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD17" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AE17" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AF17" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG17" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AH17" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AI17" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AJ17" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AK17" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AL17" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AM17" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="5:39" ht="22.5">
+      <c r="E18" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="R18" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="S18" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="T18" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="U18" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="W18" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="X18" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y18" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z18" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="AA18" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB18" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC18" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="AD18" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="AE18" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="AF18" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="AG18" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="AH18" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="AI18" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="AJ18" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="AK18" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="AL18" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="AM18" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" spans="5:39">
+      <c r="E19" s="18"/>
+      <c r="F19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="S19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="T19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="W19" s="10"/>
+      <c r="X19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD19" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL19" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM19" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="5:39">
+      <c r="E20" s="18"/>
+      <c r="F20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="S20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="T20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="U20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="W20" s="10"/>
+      <c r="X20" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y20" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z20" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA20" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AB20" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC20" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD20" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AE20" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AF20" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG20" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AH20" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AI20" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AJ20" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AK20" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AL20" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AM20" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="5:39" ht="22.5">
+      <c r="E21" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="O21" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q21" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="R21" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="S21" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="T21" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="U21" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="W21" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="X21" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y21" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z21" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="AA21" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB21" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC21" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="AD21" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="AE21" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="AF21" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="AG21" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="AH21" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="AI21" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="AJ21" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="AK21" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="AL21" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="AM21" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="22" spans="5:39">
+      <c r="E22" s="18"/>
+      <c r="F22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="R22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="S22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="T22" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="W22" s="10"/>
+      <c r="X22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD22" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL22" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM22" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="5:39">
+      <c r="E23" s="18"/>
+      <c r="F23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="S23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="T23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="U23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="W23" s="10"/>
+      <c r="X23" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y23" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z23" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA23" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AB23" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC23" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD23" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AE23" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AF23" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG23" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AH23" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AI23" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AJ23" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AK23" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AL23" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AM23" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" spans="5:39" ht="22.5">
+      <c r="E24" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="N24" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="O24" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="P24" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q24" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="R24" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="S24" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="T24" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="U24" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="W24" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="X24" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y24" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z24" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA24" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="AB24" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="AC24" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="AD24" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE24" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="AF24" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="AG24" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="AH24" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="AI24" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="AJ24" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="AK24" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL24" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="AM24" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="25" spans="5:39">
+      <c r="E25" s="18"/>
+      <c r="F25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="R25" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="S25" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="T25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U25" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="W25" s="10"/>
+      <c r="X25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD25" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL25" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM25" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="5:39">
+      <c r="E26" s="18"/>
+      <c r="F26" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="P26" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="S26" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="T26" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="U26" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="W26" s="10"/>
+      <c r="X26" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y26" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z26" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA26" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AB26" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC26" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD26" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AE26" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AF26" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG26" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AH26" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AI26" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AJ26" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AK26" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AL26" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AM26" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27" spans="5:39" ht="22.5">
+      <c r="E27" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="P27" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q27" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="R27" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="S27" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="T27" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="U27" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="W27" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="X27" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y27" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="Z27" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA27" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB27" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC27" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="AD27" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="AE27" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="AF27" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="AG27" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="AH27" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="AI27" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="AJ27" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="AK27" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL27" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="AM27" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="28" spans="5:39">
+      <c r="E28" s="18"/>
+      <c r="F28" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="P28" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q28" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R28" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S28" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="T28" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U28" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="W28" s="10"/>
+      <c r="X28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD28" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL28" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM28" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="5:39">
+      <c r="E29" s="18"/>
+      <c r="F29" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="O29" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="P29" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q29" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="R29" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="S29" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="T29" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="U29" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="W29" s="10"/>
+      <c r="X29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM29" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="5:39" ht="22.5">
+      <c r="E30" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="M30" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="N30" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="O30" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="P30" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q30" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="R30" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="S30" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="T30" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="U30" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="W30" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="X30" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y30" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="Z30" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA30" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="AB30" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="AC30" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="AD30" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="AE30" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="AF30" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="AG30" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="AH30" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="AI30" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="AJ30" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AK30" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="AL30" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="AM30" s="8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="31" spans="5:39">
+      <c r="E31" s="18"/>
+      <c r="F31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="P31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="T31" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="W31" s="10"/>
+      <c r="X31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD31" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL31" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM31" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="5:39">
+      <c r="E32" s="18"/>
+      <c r="F32" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="L32" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="M32" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="N32" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="O32" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="P32" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q32" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="R32" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="S32" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="T32" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="U32" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="W32" s="10"/>
+      <c r="X32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM32" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="5:39" ht="22.5">
+      <c r="E33" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="N33" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="O33" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="P33" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q33" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="R33" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="S33" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="T33" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="U33" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="W33" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="X33" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y33" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="Z33" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="AA33" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="AB33" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="AC33" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="AD33" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="AE33" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="AF33" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="AG33" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="AH33" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="AI33" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="AJ33" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="AK33" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="AL33" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="AM33" s="8" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="34" spans="5:39">
+      <c r="E34" s="18"/>
+      <c r="F34" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O34" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="P34" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R34" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S34" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="T34" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U34" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="W34" s="10"/>
+      <c r="X34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD34" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL34" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM34" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="5:39">
+      <c r="E35" s="18"/>
+      <c r="F35" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="L35" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="M35" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="N35" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="O35" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="P35" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q35" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="R35" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="S35" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="T35" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="U35" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="W35" s="10"/>
+      <c r="X35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM35" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="5:39" ht="22.5">
+      <c r="E36" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="L36" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="M36" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="N36" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="O36" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="P36" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q36" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="R36" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="S36" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="T36" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="U36" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="W36" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="X36" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y36" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="Z36" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="AA36" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="AB36" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="AC36" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="AD36" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="AE36" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="AF36" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="AG36" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="AH36" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="AI36" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="AJ36" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="AK36" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="AL36" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="AM36" s="8" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="37" spans="5:39">
+      <c r="E37" s="18"/>
+      <c r="F37" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O37" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="P37" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q37" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R37" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S37" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="T37" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U37" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="W37" s="10"/>
+      <c r="X37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD37" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL37" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM37" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="5:39">
+      <c r="E38" s="18"/>
+      <c r="F38" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="K38" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="L38" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="M38" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="N38" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="O38" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="P38" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q38" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="R38" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="S38" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="T38" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="U38" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="W38" s="10"/>
+      <c r="X38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM38" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="5:39" ht="22.5">
+      <c r="E39" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="L39" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="M39" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="N39" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="O39" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="P39" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q39" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="R39" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="S39" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="T39" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="U39" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="W39" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="X39" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y39" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="Z39" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="AA39" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="AB39" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="AC39" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="AD39" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="AE39" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="AF39" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="AG39" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="AH39" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="AI39" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="AJ39" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="AK39" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="AL39" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM39" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="40" spans="5:39">
+      <c r="E40" s="18"/>
+      <c r="F40" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="L40" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="N40" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="O40" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="P40" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q40" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R40" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="S40" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="T40" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="U40" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="W40" s="10"/>
+      <c r="X40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD40" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL40" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM40" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="5:39">
+      <c r="E41" s="18"/>
+      <c r="F41" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="M41" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="N41" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="O41" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="P41" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q41" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="R41" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S41" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="T41" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="U41" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="W41" s="10"/>
+      <c r="X41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM41" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="5:39" ht="22.5">
+      <c r="E42" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="K42" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="L42" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="M42" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="N42" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="O42" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="P42" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="U42" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="W42" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="X42" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y42" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="Z42" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="AA42" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="AB42" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="AC42" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="AD42" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE42" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="AF42" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG42" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="AH42" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="AI42" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="AJ42" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="AK42" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="AL42" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="AM42" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="43" spans="5:39">
+      <c r="E43" s="18"/>
+      <c r="F43" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="L43" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="N43" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="O43" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="P43" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="U43" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="W43" s="10"/>
+      <c r="X43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD43" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL43" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM43" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="5:39">
+      <c r="E44" s="18"/>
+      <c r="F44" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="M44" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="O44" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="P44" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="U44" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="W44" s="10"/>
+      <c r="X44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM44" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="5:39" ht="22.5">
+      <c r="E45" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="L45" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="M45" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="N45" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="O45" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="P45" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="U45" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="W45" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="X45" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y45" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="Z45" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="AA45" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="AB45" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="AC45" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="AD45" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="AE45" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="AF45" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="AG45" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="AH45" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="AI45" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="AJ45" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK45" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="AL45" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="AM45" s="8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="46" spans="5:39">
+      <c r="E46" s="18"/>
+      <c r="F46" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="L46" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M46" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="N46" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="O46" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="P46" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="U46" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="W46" s="10"/>
+      <c r="X46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD46" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL46" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM46" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="5:39">
+      <c r="E47" s="18"/>
+      <c r="F47" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="M47" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="N47" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="O47" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="P47" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="U47" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="W47" s="10"/>
+      <c r="X47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM47" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="5:39" ht="22.5">
+      <c r="E48" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="I48" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="L48" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="M48" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="N48" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="O48" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="P48" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q48" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="U48" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="W48" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="X48" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y48" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z48" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="AA48" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB48" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="AC48" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="AD48" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="AE48" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="AF48" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="AG48" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="AH48" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="AI48" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="AJ48" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="AK48" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="AL48" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="AM48" s="8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="49" spans="5:39">
+      <c r="E49" s="18"/>
+      <c r="F49" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="L49" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M49" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="N49" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="O49" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P49" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q49" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="U49" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="W49" s="10"/>
+      <c r="X49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD49" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL49" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM49" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="5:39">
+      <c r="E50" s="18"/>
+      <c r="F50" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="M50" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="N50" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="O50" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="P50" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q50" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="U50" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="W50" s="10"/>
+      <c r="X50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM50" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AJ50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:36">
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -2641,8 +7602,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="2:36" ht="22.5">
+      <c r="B3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2657,13 +7618,13 @@
       <c r="F3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J3" s="8" t="s">
@@ -2681,19 +7642,19 @@
       <c r="N3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="13" t="s">
         <v>41</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="U3" s="8" t="s">
@@ -2745,8 +7706,8 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
+    <row r="4" spans="2:36">
+      <c r="B4" s="18"/>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
@@ -2759,13 +7720,13 @@
       <c r="F4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="14" t="s">
+      <c r="G4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>30</v>
       </c>
       <c r="J4" s="8" t="s">
@@ -2783,19 +7744,19 @@
       <c r="N4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="14" t="s">
+      <c r="O4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="13" t="s">
         <v>30</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="10"/>
+      <c r="T4" s="18"/>
       <c r="U4" s="8" t="s">
         <v>30</v>
       </c>
@@ -2845,8 +7806,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
+    <row r="5" spans="2:36">
+      <c r="B5" s="18"/>
       <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
@@ -2859,13 +7820,13 @@
       <c r="F5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="8" t="s">
@@ -2883,19 +7844,19 @@
       <c r="N5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="13" t="s">
         <v>19</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="10"/>
+      <c r="T5" s="18"/>
       <c r="U5" s="8" t="s">
         <v>309</v>
       </c>
@@ -2945,41 +7906,41 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="2:36" ht="22.5">
+      <c r="B6" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>53</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="13" t="s">
         <v>56</v>
       </c>
       <c r="N6" s="6" t="s">
@@ -2988,22 +7949,22 @@
       <c r="O6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="13" t="s">
         <v>60</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="T6" s="18" t="s">
         <v>43</v>
       </c>
       <c r="U6" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="V6" s="17" t="s">
+      <c r="V6" s="16" t="s">
         <v>326</v>
       </c>
       <c r="W6" s="8" t="s">
@@ -3049,39 +8010,39 @@
         <v>340</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
+    <row r="7" spans="2:36">
+      <c r="B7" s="18"/>
       <c r="C7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="13" t="s">
+      <c r="H7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>54</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="13" t="s">
         <v>23</v>
       </c>
       <c r="N7" s="6" t="s">
@@ -3090,20 +8051,20 @@
       <c r="O7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="14" t="s">
+      <c r="P7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="13" t="s">
         <v>30</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="10"/>
+      <c r="T7" s="18"/>
       <c r="U7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="V7" s="17" t="s">
+      <c r="V7" s="16" t="s">
         <v>30</v>
       </c>
       <c r="W7" s="8" t="s">
@@ -3149,39 +8110,39 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
+    <row r="8" spans="2:36">
+      <c r="B8" s="18"/>
       <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="17" t="s">
+      <c r="I8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="13" t="s">
         <v>19</v>
       </c>
       <c r="N8" s="6" t="s">
@@ -3190,20 +8151,20 @@
       <c r="O8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="P8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="Q8" s="13" t="s">
         <v>19</v>
       </c>
       <c r="R8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="10"/>
+      <c r="T8" s="18"/>
       <c r="U8" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="V8" s="17" t="s">
+      <c r="V8" s="16" t="s">
         <v>309</v>
       </c>
       <c r="W8" s="8" t="s">
@@ -3249,23 +8210,23 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="2:36" ht="22.5">
+      <c r="B9" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>68</v>
       </c>
       <c r="H9" s="7" t="s">
@@ -3277,7 +8238,7 @@
       <c r="J9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="12" t="s">
         <v>73</v>
       </c>
       <c r="L9" s="6" t="s">
@@ -3295,13 +8256,13 @@
       <c r="P9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="Q9" s="13" t="s">
         <v>79</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="T9" s="10" t="s">
+      <c r="T9" s="18" t="s">
         <v>62</v>
       </c>
       <c r="U9" s="8" t="s">
@@ -3353,21 +8314,21 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="13" t="s">
+    <row r="10" spans="2:36">
+      <c r="B10" s="18"/>
+      <c r="C10" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="7" t="s">
@@ -3379,7 +8340,7 @@
       <c r="J10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="12" t="s">
         <v>64</v>
       </c>
       <c r="L10" s="6" t="s">
@@ -3397,13 +8358,13 @@
       <c r="P10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="14" t="s">
+      <c r="Q10" s="13" t="s">
         <v>30</v>
       </c>
       <c r="R10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T10" s="10"/>
+      <c r="T10" s="18"/>
       <c r="U10" s="8" t="s">
         <v>30</v>
       </c>
@@ -3453,21 +8414,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="15" t="s">
+    <row r="11" spans="2:36">
+      <c r="B11" s="18"/>
+      <c r="C11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>26</v>
       </c>
       <c r="H11" s="7" t="s">
@@ -3479,7 +8440,7 @@
       <c r="J11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="6" t="s">
@@ -3497,13 +8458,13 @@
       <c r="P11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="14" t="s">
+      <c r="Q11" s="13" t="s">
         <v>19</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="10"/>
+      <c r="T11" s="18"/>
       <c r="U11" s="8" t="s">
         <v>309</v>
       </c>
@@ -3553,17 +8514,17 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="2:36" ht="22.5">
+      <c r="B12" s="18" t="s">
         <v>82</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>85</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -3596,16 +8557,16 @@
       <c r="O12" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P12" s="15" t="s">
+      <c r="P12" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="Q12" s="14" t="s">
+      <c r="Q12" s="13" t="s">
         <v>99</v>
       </c>
       <c r="R12" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="T12" s="10" t="s">
+      <c r="T12" s="18" t="s">
         <v>82</v>
       </c>
       <c r="U12" s="8" t="s">
@@ -3657,15 +8618,15 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
+    <row r="13" spans="2:36">
+      <c r="B13" s="18"/>
       <c r="C13" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -3698,16 +8659,16 @@
       <c r="O13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="14" t="s">
+      <c r="P13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="13" t="s">
         <v>30</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T13" s="10"/>
+      <c r="T13" s="18"/>
       <c r="U13" s="8" t="s">
         <v>30</v>
       </c>
@@ -3757,15 +8718,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
+    <row r="14" spans="2:36">
+      <c r="B14" s="18"/>
       <c r="C14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -3798,16 +8759,16 @@
       <c r="O14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="15" t="s">
+      <c r="P14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" s="14" t="s">
+      <c r="Q14" s="13" t="s">
         <v>19</v>
       </c>
       <c r="R14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="T14" s="10"/>
+      <c r="T14" s="18"/>
       <c r="U14" s="8" t="s">
         <v>217</v>
       </c>
@@ -3857,8 +8818,8 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+    <row r="15" spans="2:36" ht="22.5">
+      <c r="B15" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -3906,10 +8867,10 @@
       <c r="Q15" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="R15" s="14" t="s">
+      <c r="R15" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="T15" s="10" t="s">
+      <c r="T15" s="18" t="s">
         <v>102</v>
       </c>
       <c r="U15" s="8" t="s">
@@ -3961,8 +8922,8 @@
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
+    <row r="16" spans="2:36">
+      <c r="B16" s="18"/>
       <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
@@ -4008,10 +8969,10 @@
       <c r="Q16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="T16" s="10"/>
+      <c r="R16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="T16" s="18"/>
       <c r="U16" s="8" t="s">
         <v>30</v>
       </c>
@@ -4061,8 +9022,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
+    <row r="17" spans="2:36">
+      <c r="B17" s="18"/>
       <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
@@ -4108,10 +9069,10 @@
       <c r="Q17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R17" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="T17" s="10"/>
+      <c r="R17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="T17" s="18"/>
       <c r="U17" s="8" t="s">
         <v>374</v>
       </c>
@@ -4161,8 +9122,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="18" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+    <row r="18" spans="2:36" ht="22.5">
+      <c r="B18" s="18" t="s">
         <v>119</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -4186,7 +9147,7 @@
       <c r="I18" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="13" t="s">
         <v>127</v>
       </c>
       <c r="K18" s="5" t="s">
@@ -4213,7 +9174,7 @@
       <c r="R18" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="T18" s="18" t="s">
         <v>119</v>
       </c>
       <c r="U18" s="8" t="s">
@@ -4265,8 +9226,8 @@
         <v>405</v>
       </c>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
+    <row r="19" spans="2:36">
+      <c r="B19" s="18"/>
       <c r="C19" s="5" t="s">
         <v>18</v>
       </c>
@@ -4288,7 +9249,7 @@
       <c r="I19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="13" t="s">
         <v>18</v>
       </c>
       <c r="K19" s="5" t="s">
@@ -4315,7 +9276,7 @@
       <c r="R19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T19" s="10"/>
+      <c r="T19" s="18"/>
       <c r="U19" s="8" t="s">
         <v>30</v>
       </c>
@@ -4365,8 +9326,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
+    <row r="20" spans="2:36">
+      <c r="B20" s="18"/>
       <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
@@ -4388,7 +9349,7 @@
       <c r="I20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="13" t="s">
         <v>19</v>
       </c>
       <c r="K20" s="5" t="s">
@@ -4415,7 +9376,7 @@
       <c r="R20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T20" s="10"/>
+      <c r="T20" s="18"/>
       <c r="U20" s="8" t="s">
         <v>374</v>
       </c>
@@ -4465,8 +9426,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="21" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+    <row r="21" spans="2:36" ht="22.5">
+      <c r="B21" s="18" t="s">
         <v>136</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -4490,7 +9451,7 @@
       <c r="I21" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="13" t="s">
         <v>144</v>
       </c>
       <c r="K21" s="5" t="s">
@@ -4517,7 +9478,7 @@
       <c r="R21" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="T21" s="10" t="s">
+      <c r="T21" s="18" t="s">
         <v>136</v>
       </c>
       <c r="U21" s="8" t="s">
@@ -4569,8 +9530,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
+    <row r="22" spans="2:36">
+      <c r="B22" s="18"/>
       <c r="C22" s="5" t="s">
         <v>18</v>
       </c>
@@ -4592,7 +9553,7 @@
       <c r="I22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="13" t="s">
         <v>18</v>
       </c>
       <c r="K22" s="5" t="s">
@@ -4619,7 +9580,7 @@
       <c r="R22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T22" s="10"/>
+      <c r="T22" s="18"/>
       <c r="U22" s="8" t="s">
         <v>30</v>
       </c>
@@ -4669,8 +9630,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
+    <row r="23" spans="2:36">
+      <c r="B23" s="18"/>
       <c r="C23" s="5" t="s">
         <v>19</v>
       </c>
@@ -4692,7 +9653,7 @@
       <c r="I23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="13" t="s">
         <v>19</v>
       </c>
       <c r="K23" s="5" t="s">
@@ -4719,7 +9680,7 @@
       <c r="R23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T23" s="10"/>
+      <c r="T23" s="18"/>
       <c r="U23" s="8" t="s">
         <v>374</v>
       </c>
@@ -4769,8 +9730,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="24" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
+    <row r="24" spans="2:36" ht="22.5">
+      <c r="B24" s="18" t="s">
         <v>153</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -4797,7 +9758,7 @@
       <c r="J24" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="13" t="s">
         <v>162</v>
       </c>
       <c r="L24" s="5" t="s">
@@ -4806,10 +9767,10 @@
       <c r="M24" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="N24" s="14" t="s">
+      <c r="N24" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="O24" s="14" t="s">
+      <c r="O24" s="13" t="s">
         <v>166</v>
       </c>
       <c r="P24" s="5" t="s">
@@ -4821,7 +9782,7 @@
       <c r="R24" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="T24" s="10" t="s">
+      <c r="T24" s="18" t="s">
         <v>153</v>
       </c>
       <c r="U24" s="8" t="s">
@@ -4860,7 +9821,7 @@
       <c r="AF24" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="AG24" s="17" t="s">
+      <c r="AG24" s="16" t="s">
         <v>434</v>
       </c>
       <c r="AH24" s="8" t="s">
@@ -4873,8 +9834,8 @@
         <v>437</v>
       </c>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
+    <row r="25" spans="2:36">
+      <c r="B25" s="18"/>
       <c r="C25" s="5" t="s">
         <v>23</v>
       </c>
@@ -4899,7 +9860,7 @@
       <c r="J25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="K25" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L25" s="5" t="s">
@@ -4908,10 +9869,10 @@
       <c r="M25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N25" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O25" s="14" t="s">
+      <c r="N25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25" s="13" t="s">
         <v>18</v>
       </c>
       <c r="P25" s="5" t="s">
@@ -4923,7 +9884,7 @@
       <c r="R25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T25" s="10"/>
+      <c r="T25" s="18"/>
       <c r="U25" s="8" t="s">
         <v>30</v>
       </c>
@@ -4960,7 +9921,7 @@
       <c r="AF25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AG25" s="17" t="s">
+      <c r="AG25" s="16" t="s">
         <v>30</v>
       </c>
       <c r="AH25" s="8" t="s">
@@ -4973,8 +9934,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
+    <row r="26" spans="2:36">
+      <c r="B26" s="18"/>
       <c r="C26" s="5" t="s">
         <v>19</v>
       </c>
@@ -4999,7 +9960,7 @@
       <c r="J26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="K26" s="13" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="5" t="s">
@@ -5008,10 +9969,10 @@
       <c r="M26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N26" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O26" s="14" t="s">
+      <c r="N26" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" s="13" t="s">
         <v>19</v>
       </c>
       <c r="P26" s="5" t="s">
@@ -5023,7 +9984,7 @@
       <c r="R26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T26" s="10"/>
+      <c r="T26" s="18"/>
       <c r="U26" s="8" t="s">
         <v>374</v>
       </c>
@@ -5060,7 +10021,7 @@
       <c r="AF26" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="AG26" s="17" t="s">
+      <c r="AG26" s="16" t="s">
         <v>374</v>
       </c>
       <c r="AH26" s="8" t="s">
@@ -5073,8 +10034,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="27" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
+    <row r="27" spans="2:36" ht="22.5">
+      <c r="B27" s="18" t="s">
         <v>170</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -5095,7 +10056,7 @@
       <c r="H27" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="14" t="s">
         <v>178</v>
       </c>
       <c r="J27" s="7" t="s">
@@ -5125,7 +10086,7 @@
       <c r="R27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="T27" s="10" t="s">
+      <c r="T27" s="18" t="s">
         <v>170</v>
       </c>
       <c r="U27" s="8" t="s">
@@ -5177,8 +10138,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
+    <row r="28" spans="2:36">
+      <c r="B28" s="18"/>
       <c r="C28" s="7" t="s">
         <v>18</v>
       </c>
@@ -5197,7 +10158,7 @@
       <c r="H28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="14" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="7" t="s">
@@ -5227,7 +10188,7 @@
       <c r="R28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T28" s="10"/>
+      <c r="T28" s="18"/>
       <c r="U28" s="8" t="s">
         <v>30</v>
       </c>
@@ -5277,8 +10238,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
+    <row r="29" spans="2:36">
+      <c r="B29" s="18"/>
       <c r="C29" s="7" t="s">
         <v>172</v>
       </c>
@@ -5297,7 +10258,7 @@
       <c r="H29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="14" t="s">
         <v>172</v>
       </c>
       <c r="J29" s="7" t="s">
@@ -5327,7 +10288,7 @@
       <c r="R29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="T29" s="10"/>
+      <c r="T29" s="18"/>
       <c r="U29" s="8" t="s">
         <v>19</v>
       </c>
@@ -5377,11 +10338,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
+    <row r="30" spans="2:36" ht="22.5">
+      <c r="B30" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="14" t="s">
         <v>189</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -5429,7 +10390,7 @@
       <c r="R30" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="T30" s="10" t="s">
+      <c r="T30" s="18" t="s">
         <v>188</v>
       </c>
       <c r="U30" s="8" t="s">
@@ -5481,9 +10442,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-      <c r="C31" s="15" t="s">
+    <row r="31" spans="2:36">
+      <c r="B31" s="18"/>
+      <c r="C31" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -5531,7 +10492,7 @@
       <c r="R31" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T31" s="10"/>
+      <c r="T31" s="18"/>
       <c r="U31" s="8" t="s">
         <v>30</v>
       </c>
@@ -5581,9 +10542,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B32" s="10"/>
-      <c r="C32" s="15" t="s">
+    <row r="32" spans="2:36">
+      <c r="B32" s="18"/>
+      <c r="C32" s="14" t="s">
         <v>190</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -5631,7 +10592,7 @@
       <c r="R32" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="T32" s="10"/>
+      <c r="T32" s="18"/>
       <c r="U32" s="8" t="s">
         <v>19</v>
       </c>
@@ -5681,8 +10642,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
+    <row r="33" spans="2:36" ht="22.5">
+      <c r="B33" s="18" t="s">
         <v>206</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -5730,10 +10691,10 @@
       <c r="Q33" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="R33" s="15" t="s">
+      <c r="R33" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="T33" s="10" t="s">
+      <c r="T33" s="18" t="s">
         <v>206</v>
       </c>
       <c r="U33" s="8" t="s">
@@ -5785,8 +10746,8 @@
         <v>485</v>
       </c>
     </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B34" s="10"/>
+    <row r="34" spans="2:36">
+      <c r="B34" s="18"/>
       <c r="C34" s="7" t="s">
         <v>18</v>
       </c>
@@ -5832,10 +10793,10 @@
       <c r="Q34" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="R34" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="T34" s="10"/>
+      <c r="R34" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="T34" s="18"/>
       <c r="U34" s="8" t="s">
         <v>30</v>
       </c>
@@ -5885,8 +10846,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B35" s="10"/>
+    <row r="35" spans="2:36">
+      <c r="B35" s="18"/>
       <c r="C35" s="7" t="s">
         <v>208</v>
       </c>
@@ -5932,10 +10893,10 @@
       <c r="Q35" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="R35" s="15" t="s">
+      <c r="R35" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="T35" s="10"/>
+      <c r="T35" s="18"/>
       <c r="U35" s="8" t="s">
         <v>19</v>
       </c>
@@ -5985,8 +10946,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
+    <row r="36" spans="2:36" ht="22.5">
+      <c r="B36" s="18" t="s">
         <v>225</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -6031,13 +10992,13 @@
       <c r="P36" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="Q36" s="15" t="s">
+      <c r="Q36" s="14" t="s">
         <v>240</v>
       </c>
       <c r="R36" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="T36" s="10" t="s">
+      <c r="T36" s="18" t="s">
         <v>225</v>
       </c>
       <c r="U36" s="8" t="s">
@@ -6089,8 +11050,8 @@
         <v>501</v>
       </c>
     </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
+    <row r="37" spans="2:36">
+      <c r="B37" s="18"/>
       <c r="C37" s="7" t="s">
         <v>18</v>
       </c>
@@ -6133,13 +11094,13 @@
       <c r="P37" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q37" s="15" t="s">
+      <c r="Q37" s="14" t="s">
         <v>23</v>
       </c>
       <c r="R37" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T37" s="10"/>
+      <c r="T37" s="18"/>
       <c r="U37" s="8" t="s">
         <v>30</v>
       </c>
@@ -6189,8 +11150,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B38" s="10"/>
+    <row r="38" spans="2:36">
+      <c r="B38" s="18"/>
       <c r="C38" s="7" t="s">
         <v>217</v>
       </c>
@@ -6233,13 +11194,13 @@
       <c r="P38" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="Q38" s="15" t="s">
+      <c r="Q38" s="14" t="s">
         <v>190</v>
       </c>
       <c r="R38" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="T38" s="10"/>
+      <c r="T38" s="18"/>
       <c r="U38" s="8" t="s">
         <v>19</v>
       </c>
@@ -6289,14 +11250,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
+    <row r="39" spans="2:36" ht="22.5">
+      <c r="B39" s="18" t="s">
         <v>242</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="11" t="s">
         <v>245</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -6308,7 +11269,7 @@
       <c r="G39" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="H39" s="11" t="s">
         <v>252</v>
       </c>
       <c r="I39" s="7" t="s">
@@ -6320,19 +11281,19 @@
       <c r="K39" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="L39" s="13" t="s">
+      <c r="L39" s="12" t="s">
         <v>257</v>
       </c>
       <c r="M39" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="N39" s="18" t="s">
+      <c r="N39" s="17" t="s">
         <v>259</v>
       </c>
       <c r="O39" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="P39" s="13" t="s">
+      <c r="P39" s="12" t="s">
         <v>261</v>
       </c>
       <c r="Q39" s="7" t="s">
@@ -6341,7 +11302,7 @@
       <c r="R39" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="T39" s="10" t="s">
+      <c r="T39" s="18" t="s">
         <v>242</v>
       </c>
       <c r="U39" s="8" t="s">
@@ -6393,12 +11354,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B40" s="10"/>
+    <row r="40" spans="2:36">
+      <c r="B40" s="18"/>
       <c r="C40" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="11" t="s">
         <v>88</v>
       </c>
       <c r="E40" s="9" t="s">
@@ -6410,7 +11371,7 @@
       <c r="G40" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="11" t="s">
         <v>253</v>
       </c>
       <c r="I40" s="7" t="s">
@@ -6422,19 +11383,19 @@
       <c r="K40" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="L40" s="13" t="s">
+      <c r="L40" s="12" t="s">
         <v>253</v>
       </c>
       <c r="M40" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="N40" s="18" t="s">
+      <c r="N40" s="17" t="s">
         <v>18</v>
       </c>
       <c r="O40" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="P40" s="13" t="s">
+      <c r="P40" s="12" t="s">
         <v>262</v>
       </c>
       <c r="Q40" s="7" t="s">
@@ -6443,7 +11404,7 @@
       <c r="R40" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="T40" s="10"/>
+      <c r="T40" s="18"/>
       <c r="U40" s="8" t="s">
         <v>30</v>
       </c>
@@ -6493,12 +11454,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B41" s="10"/>
+    <row r="41" spans="2:36">
+      <c r="B41" s="18"/>
       <c r="C41" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E41" s="9" t="s">
@@ -6510,7 +11471,7 @@
       <c r="G41" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H41" s="11" t="s">
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
@@ -6522,19 +11483,19 @@
       <c r="K41" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L41" s="13" t="s">
+      <c r="L41" s="12" t="s">
         <v>19</v>
       </c>
       <c r="M41" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N41" s="18" t="s">
+      <c r="N41" s="17" t="s">
         <v>19</v>
       </c>
       <c r="O41" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P41" s="13" t="s">
+      <c r="P41" s="12" t="s">
         <v>19</v>
       </c>
       <c r="Q41" s="7" t="s">
@@ -6543,7 +11504,7 @@
       <c r="R41" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T41" s="10"/>
+      <c r="T41" s="18"/>
       <c r="U41" s="8" t="s">
         <v>19</v>
       </c>
@@ -6593,8 +11554,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
+    <row r="42" spans="2:36" ht="22.5">
+      <c r="B42" s="18" t="s">
         <v>265</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -6606,7 +11567,7 @@
       <c r="E42" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="F42" s="11"/>
+      <c r="F42" s="19"/>
       <c r="G42" s="9" t="s">
         <v>269</v>
       </c>
@@ -6628,18 +11589,18 @@
       <c r="M42" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="N42" s="11"/>
+      <c r="N42" s="19"/>
       <c r="O42" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="P42" s="11"/>
+      <c r="P42" s="19"/>
       <c r="Q42" s="7" t="s">
         <v>277</v>
       </c>
       <c r="R42" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="T42" s="10" t="s">
+      <c r="T42" s="18" t="s">
         <v>265</v>
       </c>
       <c r="U42" s="8" t="s">
@@ -6691,8 +11652,8 @@
         <v>533</v>
       </c>
     </row>
-    <row r="43" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B43" s="10"/>
+    <row r="43" spans="2:36">
+      <c r="B43" s="18"/>
       <c r="C43" s="9" t="s">
         <v>244</v>
       </c>
@@ -6702,7 +11663,7 @@
       <c r="E43" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F43" s="11"/>
+      <c r="F43" s="19"/>
       <c r="G43" s="9" t="s">
         <v>251</v>
       </c>
@@ -6724,18 +11685,18 @@
       <c r="M43" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="N43" s="11"/>
+      <c r="N43" s="19"/>
       <c r="O43" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="P43" s="11"/>
+      <c r="P43" s="19"/>
       <c r="Q43" s="7" t="s">
         <v>30</v>
       </c>
       <c r="R43" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="T43" s="10"/>
+      <c r="T43" s="18"/>
       <c r="U43" s="8" t="s">
         <v>30</v>
       </c>
@@ -6785,8 +11746,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B44" s="10"/>
+    <row r="44" spans="2:36">
+      <c r="B44" s="18"/>
       <c r="C44" s="9" t="s">
         <v>19</v>
       </c>
@@ -6796,7 +11757,7 @@
       <c r="E44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="11"/>
+      <c r="F44" s="19"/>
       <c r="G44" s="9" t="s">
         <v>19</v>
       </c>
@@ -6818,18 +11779,18 @@
       <c r="M44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N44" s="11"/>
+      <c r="N44" s="19"/>
       <c r="O44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P44" s="11"/>
+      <c r="P44" s="19"/>
       <c r="Q44" s="7" t="s">
         <v>190</v>
       </c>
       <c r="R44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T44" s="10"/>
+      <c r="T44" s="18"/>
       <c r="U44" s="8" t="s">
         <v>19</v>
       </c>
@@ -6879,21 +11840,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
+    <row r="45" spans="2:36" ht="22.5">
+      <c r="B45" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="13" t="s">
         <v>280</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
       <c r="H45" s="4" t="s">
         <v>283</v>
       </c>
@@ -6909,19 +11870,19 @@
       <c r="L45" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="M45" s="14" t="s">
+      <c r="M45" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
       <c r="Q45" s="7" t="s">
         <v>291</v>
       </c>
       <c r="R45" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="T45" s="10" t="s">
+      <c r="T45" s="18" t="s">
         <v>279</v>
       </c>
       <c r="U45" s="8" t="s">
@@ -6973,19 +11934,19 @@
         <v>549</v>
       </c>
     </row>
-    <row r="46" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B46" s="10"/>
-      <c r="C46" s="14" t="s">
+    <row r="46" spans="2:36">
+      <c r="B46" s="18"/>
+      <c r="C46" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="E46" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
       <c r="H46" s="4" t="s">
         <v>253</v>
       </c>
@@ -7001,19 +11962,19 @@
       <c r="L46" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M46" s="14" t="s">
+      <c r="M46" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
       <c r="Q46" s="7" t="s">
         <v>30</v>
       </c>
       <c r="R46" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="T46" s="10"/>
+      <c r="T46" s="18"/>
       <c r="U46" s="8" t="s">
         <v>30</v>
       </c>
@@ -7063,19 +12024,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B47" s="10"/>
-      <c r="C47" s="14" t="s">
+    <row r="47" spans="2:36">
+      <c r="B47" s="18"/>
+      <c r="C47" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="E47" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
       <c r="H47" s="4" t="s">
         <v>19</v>
       </c>
@@ -7091,19 +12052,19 @@
       <c r="L47" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M47" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
+      <c r="M47" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
       <c r="Q47" s="7" t="s">
         <v>217</v>
       </c>
       <c r="R47" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T47" s="10"/>
+      <c r="T47" s="18"/>
       <c r="U47" s="8" t="s">
         <v>19</v>
       </c>
@@ -7153,11 +12114,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B48" s="10" t="s">
+    <row r="48" spans="2:36" ht="22.5">
+      <c r="B48" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="13" t="s">
         <v>294</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -7169,7 +12130,7 @@
       <c r="F48" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="G48" s="11"/>
+      <c r="G48" s="19"/>
       <c r="H48" s="4" t="s">
         <v>299</v>
       </c>
@@ -7191,15 +12152,15 @@
       <c r="N48" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="15" t="s">
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="14" t="s">
         <v>306</v>
       </c>
       <c r="R48" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="T48" s="10" t="s">
+      <c r="T48" s="18" t="s">
         <v>293</v>
       </c>
       <c r="U48" s="8" t="s">
@@ -7251,9 +12212,9 @@
         <v>565</v>
       </c>
     </row>
-    <row r="49" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B49" s="10"/>
-      <c r="C49" s="14" t="s">
+    <row r="49" spans="2:36">
+      <c r="B49" s="18"/>
+      <c r="C49" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -7265,7 +12226,7 @@
       <c r="F49" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="11"/>
+      <c r="G49" s="19"/>
       <c r="H49" s="4" t="s">
         <v>253</v>
       </c>
@@ -7287,15 +12248,15 @@
       <c r="N49" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="15" t="s">
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="14" t="s">
         <v>30</v>
       </c>
       <c r="R49" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="T49" s="10"/>
+      <c r="T49" s="18"/>
       <c r="U49" s="8" t="s">
         <v>30</v>
       </c>
@@ -7345,9 +12306,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B50" s="10"/>
-      <c r="C50" s="14" t="s">
+    <row r="50" spans="2:36">
+      <c r="B50" s="18"/>
+      <c r="C50" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -7359,7 +12320,7 @@
       <c r="F50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="11"/>
+      <c r="G50" s="19"/>
       <c r="H50" s="4" t="s">
         <v>19</v>
       </c>
@@ -7381,15 +12342,15 @@
       <c r="N50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="15" t="s">
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="14" t="s">
         <v>190</v>
       </c>
       <c r="R50" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T50" s="10"/>
+      <c r="T50" s="18"/>
       <c r="U50" s="8" t="s">
         <v>19</v>
       </c>
@@ -7441,6 +12402,37 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="T15:T17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="T24:T26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="T27:T29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="T30:T32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="T33:T35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="T36:T38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="T39:T41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="N42:N44"/>
+    <mergeCell ref="P42:P44"/>
+    <mergeCell ref="T42:T44"/>
     <mergeCell ref="T45:T47"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="G48:G50"/>
@@ -7453,37 +12445,6 @@
     <mergeCell ref="N45:N47"/>
     <mergeCell ref="O45:O47"/>
     <mergeCell ref="P45:P47"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="T39:T41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="N42:N44"/>
-    <mergeCell ref="P42:P44"/>
-    <mergeCell ref="T42:T44"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="T30:T32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="T33:T35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="T36:T38"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="T24:T26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="T27:T29"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="T15:T17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="T9:T11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -7491,17 +12452,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AJ50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:36">
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -7601,8 +12562,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="2:36" ht="22.5">
+      <c r="B3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -7653,7 +12614,7 @@
       <c r="R3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="U3" s="8" t="s">
@@ -7705,8 +12666,8 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
+    <row r="4" spans="2:36">
+      <c r="B4" s="18"/>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
@@ -7755,7 +12716,7 @@
       <c r="R4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="10"/>
+      <c r="T4" s="18"/>
       <c r="U4" s="8" t="s">
         <v>30</v>
       </c>
@@ -7805,8 +12766,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
+    <row r="5" spans="2:36">
+      <c r="B5" s="18"/>
       <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
@@ -7855,7 +12816,7 @@
       <c r="R5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="10"/>
+      <c r="T5" s="18"/>
       <c r="U5" s="8" t="s">
         <v>309</v>
       </c>
@@ -7905,8 +12866,8 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="2:36" ht="22.5">
+      <c r="B6" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -7957,7 +12918,7 @@
       <c r="R6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="T6" s="18" t="s">
         <v>43</v>
       </c>
       <c r="U6" s="8" t="s">
@@ -8009,8 +12970,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
+    <row r="7" spans="2:36">
+      <c r="B7" s="18"/>
       <c r="C7" s="3" t="s">
         <v>45</v>
       </c>
@@ -8059,7 +13020,7 @@
       <c r="R7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="10"/>
+      <c r="T7" s="18"/>
       <c r="U7" s="8" t="s">
         <v>30</v>
       </c>
@@ -8109,8 +13070,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
+    <row r="8" spans="2:36">
+      <c r="B8" s="18"/>
       <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
@@ -8159,7 +13120,7 @@
       <c r="R8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="10"/>
+      <c r="T8" s="18"/>
       <c r="U8" s="8" t="s">
         <v>309</v>
       </c>
@@ -8209,8 +13170,8 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="2:36" ht="22.5">
+      <c r="B9" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -8261,7 +13222,7 @@
       <c r="R9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="T9" s="10" t="s">
+      <c r="T9" s="18" t="s">
         <v>62</v>
       </c>
       <c r="U9" s="8" t="s">
@@ -8313,8 +13274,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
+    <row r="10" spans="2:36">
+      <c r="B10" s="18"/>
       <c r="C10" s="9" t="s">
         <v>64</v>
       </c>
@@ -8363,7 +13324,7 @@
       <c r="R10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T10" s="10"/>
+      <c r="T10" s="18"/>
       <c r="U10" s="8" t="s">
         <v>30</v>
       </c>
@@ -8413,8 +13374,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
+    <row r="11" spans="2:36">
+      <c r="B11" s="18"/>
       <c r="C11" s="9" t="s">
         <v>19</v>
       </c>
@@ -8463,7 +13424,7 @@
       <c r="R11" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="10"/>
+      <c r="T11" s="18"/>
       <c r="U11" s="8" t="s">
         <v>309</v>
       </c>
@@ -8513,8 +13474,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="2:36" ht="22.5">
+      <c r="B12" s="18" t="s">
         <v>82</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -8565,7 +13526,7 @@
       <c r="R12" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="T12" s="10" t="s">
+      <c r="T12" s="18" t="s">
         <v>82</v>
       </c>
       <c r="U12" s="8" t="s">
@@ -8617,8 +13578,8 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
+    <row r="13" spans="2:36">
+      <c r="B13" s="18"/>
       <c r="C13" s="9" t="s">
         <v>64</v>
       </c>
@@ -8667,7 +13628,7 @@
       <c r="R13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T13" s="10"/>
+      <c r="T13" s="18"/>
       <c r="U13" s="8" t="s">
         <v>30</v>
       </c>
@@ -8717,8 +13678,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
+    <row r="14" spans="2:36">
+      <c r="B14" s="18"/>
       <c r="C14" s="9" t="s">
         <v>19</v>
       </c>
@@ -8767,7 +13728,7 @@
       <c r="R14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="T14" s="10"/>
+      <c r="T14" s="18"/>
       <c r="U14" s="8" t="s">
         <v>217</v>
       </c>
@@ -8817,8 +13778,8 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+    <row r="15" spans="2:36" ht="22.5">
+      <c r="B15" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -8869,7 +13830,7 @@
       <c r="R15" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="T15" s="10" t="s">
+      <c r="T15" s="18" t="s">
         <v>102</v>
       </c>
       <c r="U15" s="8" t="s">
@@ -8921,8 +13882,8 @@
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
+    <row r="16" spans="2:36">
+      <c r="B16" s="18"/>
       <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
@@ -8971,7 +13932,7 @@
       <c r="R16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T16" s="10"/>
+      <c r="T16" s="18"/>
       <c r="U16" s="8" t="s">
         <v>30</v>
       </c>
@@ -9021,8 +13982,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
+    <row r="17" spans="2:36">
+      <c r="B17" s="18"/>
       <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
@@ -9071,7 +14032,7 @@
       <c r="R17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T17" s="10"/>
+      <c r="T17" s="18"/>
       <c r="U17" s="8" t="s">
         <v>374</v>
       </c>
@@ -9121,8 +14082,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="18" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+    <row r="18" spans="2:36" ht="22.5">
+      <c r="B18" s="18" t="s">
         <v>119</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -9173,7 +14134,7 @@
       <c r="R18" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="T18" s="18" t="s">
         <v>119</v>
       </c>
       <c r="U18" s="8" t="s">
@@ -9225,8 +14186,8 @@
         <v>405</v>
       </c>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
+    <row r="19" spans="2:36">
+      <c r="B19" s="18"/>
       <c r="C19" s="5" t="s">
         <v>18</v>
       </c>
@@ -9275,7 +14236,7 @@
       <c r="R19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T19" s="10"/>
+      <c r="T19" s="18"/>
       <c r="U19" s="8" t="s">
         <v>30</v>
       </c>
@@ -9325,8 +14286,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
+    <row r="20" spans="2:36">
+      <c r="B20" s="18"/>
       <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
@@ -9375,7 +14336,7 @@
       <c r="R20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T20" s="10"/>
+      <c r="T20" s="18"/>
       <c r="U20" s="8" t="s">
         <v>374</v>
       </c>
@@ -9425,8 +14386,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="21" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+    <row r="21" spans="2:36" ht="22.5">
+      <c r="B21" s="18" t="s">
         <v>136</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -9477,7 +14438,7 @@
       <c r="R21" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="T21" s="10" t="s">
+      <c r="T21" s="18" t="s">
         <v>136</v>
       </c>
       <c r="U21" s="8" t="s">
@@ -9529,8 +14490,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
+    <row r="22" spans="2:36">
+      <c r="B22" s="18"/>
       <c r="C22" s="5" t="s">
         <v>18</v>
       </c>
@@ -9579,7 +14540,7 @@
       <c r="R22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T22" s="10"/>
+      <c r="T22" s="18"/>
       <c r="U22" s="8" t="s">
         <v>30</v>
       </c>
@@ -9629,8 +14590,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
+    <row r="23" spans="2:36">
+      <c r="B23" s="18"/>
       <c r="C23" s="5" t="s">
         <v>19</v>
       </c>
@@ -9679,7 +14640,7 @@
       <c r="R23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T23" s="10"/>
+      <c r="T23" s="18"/>
       <c r="U23" s="8" t="s">
         <v>374</v>
       </c>
@@ -9729,8 +14690,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="24" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
+    <row r="24" spans="2:36" ht="22.5">
+      <c r="B24" s="18" t="s">
         <v>153</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -9781,7 +14742,7 @@
       <c r="R24" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="T24" s="10" t="s">
+      <c r="T24" s="18" t="s">
         <v>153</v>
       </c>
       <c r="U24" s="8" t="s">
@@ -9833,8 +14794,8 @@
         <v>437</v>
       </c>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
+    <row r="25" spans="2:36">
+      <c r="B25" s="18"/>
       <c r="C25" s="5" t="s">
         <v>23</v>
       </c>
@@ -9883,7 +14844,7 @@
       <c r="R25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T25" s="10"/>
+      <c r="T25" s="18"/>
       <c r="U25" s="8" t="s">
         <v>30</v>
       </c>
@@ -9933,8 +14894,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
+    <row r="26" spans="2:36">
+      <c r="B26" s="18"/>
       <c r="C26" s="5" t="s">
         <v>19</v>
       </c>
@@ -9983,7 +14944,7 @@
       <c r="R26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T26" s="10"/>
+      <c r="T26" s="18"/>
       <c r="U26" s="8" t="s">
         <v>374</v>
       </c>
@@ -10033,8 +14994,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="27" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
+    <row r="27" spans="2:36" ht="22.5">
+      <c r="B27" s="18" t="s">
         <v>170</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -10085,7 +15046,7 @@
       <c r="R27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="T27" s="10" t="s">
+      <c r="T27" s="18" t="s">
         <v>170</v>
       </c>
       <c r="U27" s="8" t="s">
@@ -10137,8 +15098,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
+    <row r="28" spans="2:36">
+      <c r="B28" s="18"/>
       <c r="C28" s="7" t="s">
         <v>18</v>
       </c>
@@ -10187,7 +15148,7 @@
       <c r="R28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T28" s="10"/>
+      <c r="T28" s="18"/>
       <c r="U28" s="8" t="s">
         <v>30</v>
       </c>
@@ -10237,8 +15198,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
+    <row r="29" spans="2:36">
+      <c r="B29" s="18"/>
       <c r="C29" s="7" t="s">
         <v>172</v>
       </c>
@@ -10287,7 +15248,7 @@
       <c r="R29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="T29" s="10"/>
+      <c r="T29" s="18"/>
       <c r="U29" s="8" t="s">
         <v>19</v>
       </c>
@@ -10337,8 +15298,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
+    <row r="30" spans="2:36" ht="22.5">
+      <c r="B30" s="18" t="s">
         <v>188</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -10389,7 +15350,7 @@
       <c r="R30" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="T30" s="10" t="s">
+      <c r="T30" s="18" t="s">
         <v>188</v>
       </c>
       <c r="U30" s="8" t="s">
@@ -10441,8 +15402,8 @@
         <v>469</v>
       </c>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
+    <row r="31" spans="2:36">
+      <c r="B31" s="18"/>
       <c r="C31" s="7" t="s">
         <v>18</v>
       </c>
@@ -10491,7 +15452,7 @@
       <c r="R31" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T31" s="10"/>
+      <c r="T31" s="18"/>
       <c r="U31" s="8" t="s">
         <v>30</v>
       </c>
@@ -10541,8 +15502,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B32" s="10"/>
+    <row r="32" spans="2:36">
+      <c r="B32" s="18"/>
       <c r="C32" s="7" t="s">
         <v>190</v>
       </c>
@@ -10591,7 +15552,7 @@
       <c r="R32" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="T32" s="10"/>
+      <c r="T32" s="18"/>
       <c r="U32" s="8" t="s">
         <v>19</v>
       </c>
@@ -10641,8 +15602,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
+    <row r="33" spans="2:36" ht="22.5">
+      <c r="B33" s="18" t="s">
         <v>206</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -10693,7 +15654,7 @@
       <c r="R33" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="T33" s="10" t="s">
+      <c r="T33" s="18" t="s">
         <v>206</v>
       </c>
       <c r="U33" s="8" t="s">
@@ -10745,8 +15706,8 @@
         <v>485</v>
       </c>
     </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B34" s="10"/>
+    <row r="34" spans="2:36">
+      <c r="B34" s="18"/>
       <c r="C34" s="7" t="s">
         <v>18</v>
       </c>
@@ -10795,7 +15756,7 @@
       <c r="R34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T34" s="10"/>
+      <c r="T34" s="18"/>
       <c r="U34" s="8" t="s">
         <v>30</v>
       </c>
@@ -10845,8 +15806,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B35" s="10"/>
+    <row r="35" spans="2:36">
+      <c r="B35" s="18"/>
       <c r="C35" s="7" t="s">
         <v>208</v>
       </c>
@@ -10895,7 +15856,7 @@
       <c r="R35" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="T35" s="10"/>
+      <c r="T35" s="18"/>
       <c r="U35" s="8" t="s">
         <v>19</v>
       </c>
@@ -10945,8 +15906,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
+    <row r="36" spans="2:36" ht="22.5">
+      <c r="B36" s="18" t="s">
         <v>225</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -10997,7 +15958,7 @@
       <c r="R36" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="T36" s="10" t="s">
+      <c r="T36" s="18" t="s">
         <v>225</v>
       </c>
       <c r="U36" s="8" t="s">
@@ -11049,8 +16010,8 @@
         <v>501</v>
       </c>
     </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
+    <row r="37" spans="2:36">
+      <c r="B37" s="18"/>
       <c r="C37" s="7" t="s">
         <v>18</v>
       </c>
@@ -11099,7 +16060,7 @@
       <c r="R37" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T37" s="10"/>
+      <c r="T37" s="18"/>
       <c r="U37" s="8" t="s">
         <v>30</v>
       </c>
@@ -11149,8 +16110,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B38" s="10"/>
+    <row r="38" spans="2:36">
+      <c r="B38" s="18"/>
       <c r="C38" s="7" t="s">
         <v>217</v>
       </c>
@@ -11199,7 +16160,7 @@
       <c r="R38" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="T38" s="10"/>
+      <c r="T38" s="18"/>
       <c r="U38" s="8" t="s">
         <v>19</v>
       </c>
@@ -11249,8 +16210,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
+    <row r="39" spans="2:36" ht="22.5">
+      <c r="B39" s="18" t="s">
         <v>242</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -11301,7 +16262,7 @@
       <c r="R39" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="T39" s="10" t="s">
+      <c r="T39" s="18" t="s">
         <v>242</v>
       </c>
       <c r="U39" s="8" t="s">
@@ -11353,8 +16314,8 @@
         <v>517</v>
       </c>
     </row>
-    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B40" s="10"/>
+    <row r="40" spans="2:36">
+      <c r="B40" s="18"/>
       <c r="C40" s="9" t="s">
         <v>244</v>
       </c>
@@ -11403,7 +16364,7 @@
       <c r="R40" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="T40" s="10"/>
+      <c r="T40" s="18"/>
       <c r="U40" s="8" t="s">
         <v>30</v>
       </c>
@@ -11453,8 +16414,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B41" s="10"/>
+    <row r="41" spans="2:36">
+      <c r="B41" s="18"/>
       <c r="C41" s="9" t="s">
         <v>19</v>
       </c>
@@ -11503,7 +16464,7 @@
       <c r="R41" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T41" s="10"/>
+      <c r="T41" s="18"/>
       <c r="U41" s="8" t="s">
         <v>19</v>
       </c>
@@ -11553,8 +16514,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
+    <row r="42" spans="2:36" ht="22.5">
+      <c r="B42" s="18" t="s">
         <v>265</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -11566,7 +16527,7 @@
       <c r="E42" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="F42" s="11"/>
+      <c r="F42" s="19"/>
       <c r="G42" s="9" t="s">
         <v>269</v>
       </c>
@@ -11588,18 +16549,18 @@
       <c r="M42" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="N42" s="11"/>
+      <c r="N42" s="19"/>
       <c r="O42" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="P42" s="11"/>
+      <c r="P42" s="19"/>
       <c r="Q42" s="7" t="s">
         <v>277</v>
       </c>
       <c r="R42" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="T42" s="10" t="s">
+      <c r="T42" s="18" t="s">
         <v>265</v>
       </c>
       <c r="U42" s="8" t="s">
@@ -11651,8 +16612,8 @@
         <v>533</v>
       </c>
     </row>
-    <row r="43" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B43" s="10"/>
+    <row r="43" spans="2:36">
+      <c r="B43" s="18"/>
       <c r="C43" s="9" t="s">
         <v>244</v>
       </c>
@@ -11662,7 +16623,7 @@
       <c r="E43" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F43" s="11"/>
+      <c r="F43" s="19"/>
       <c r="G43" s="9" t="s">
         <v>251</v>
       </c>
@@ -11684,18 +16645,18 @@
       <c r="M43" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="N43" s="11"/>
+      <c r="N43" s="19"/>
       <c r="O43" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="P43" s="11"/>
+      <c r="P43" s="19"/>
       <c r="Q43" s="7" t="s">
         <v>30</v>
       </c>
       <c r="R43" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="T43" s="10"/>
+      <c r="T43" s="18"/>
       <c r="U43" s="8" t="s">
         <v>30</v>
       </c>
@@ -11745,8 +16706,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B44" s="10"/>
+    <row r="44" spans="2:36">
+      <c r="B44" s="18"/>
       <c r="C44" s="9" t="s">
         <v>19</v>
       </c>
@@ -11756,7 +16717,7 @@
       <c r="E44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="11"/>
+      <c r="F44" s="19"/>
       <c r="G44" s="9" t="s">
         <v>19</v>
       </c>
@@ -11778,18 +16739,18 @@
       <c r="M44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N44" s="11"/>
+      <c r="N44" s="19"/>
       <c r="O44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P44" s="11"/>
+      <c r="P44" s="19"/>
       <c r="Q44" s="7" t="s">
         <v>190</v>
       </c>
       <c r="R44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T44" s="10"/>
+      <c r="T44" s="18"/>
       <c r="U44" s="8" t="s">
         <v>19</v>
       </c>
@@ -11839,8 +16800,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
+    <row r="45" spans="2:36" ht="22.5">
+      <c r="B45" s="18" t="s">
         <v>279</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -11852,8 +16813,8 @@
       <c r="E45" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
       <c r="H45" s="4" t="s">
         <v>283</v>
       </c>
@@ -11872,16 +16833,16 @@
       <c r="M45" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
       <c r="Q45" s="7" t="s">
         <v>291</v>
       </c>
       <c r="R45" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="T45" s="10" t="s">
+      <c r="T45" s="18" t="s">
         <v>279</v>
       </c>
       <c r="U45" s="8" t="s">
@@ -11933,8 +16894,8 @@
         <v>549</v>
       </c>
     </row>
-    <row r="46" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B46" s="10"/>
+    <row r="46" spans="2:36">
+      <c r="B46" s="18"/>
       <c r="C46" s="5" t="s">
         <v>54</v>
       </c>
@@ -11944,8 +16905,8 @@
       <c r="E46" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
       <c r="H46" s="4" t="s">
         <v>253</v>
       </c>
@@ -11964,16 +16925,16 @@
       <c r="M46" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
       <c r="Q46" s="7" t="s">
         <v>30</v>
       </c>
       <c r="R46" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="T46" s="10"/>
+      <c r="T46" s="18"/>
       <c r="U46" s="8" t="s">
         <v>30</v>
       </c>
@@ -12023,8 +16984,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B47" s="10"/>
+    <row r="47" spans="2:36">
+      <c r="B47" s="18"/>
       <c r="C47" s="5" t="s">
         <v>19</v>
       </c>
@@ -12034,8 +16995,8 @@
       <c r="E47" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
       <c r="H47" s="4" t="s">
         <v>19</v>
       </c>
@@ -12054,16 +17015,16 @@
       <c r="M47" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
       <c r="Q47" s="7" t="s">
         <v>217</v>
       </c>
       <c r="R47" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T47" s="10"/>
+      <c r="T47" s="18"/>
       <c r="U47" s="8" t="s">
         <v>19</v>
       </c>
@@ -12113,8 +17074,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="2:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B48" s="10" t="s">
+    <row r="48" spans="2:36" ht="22.5">
+      <c r="B48" s="18" t="s">
         <v>293</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -12129,7 +17090,7 @@
       <c r="F48" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="G48" s="11"/>
+      <c r="G48" s="19"/>
       <c r="H48" s="4" t="s">
         <v>299</v>
       </c>
@@ -12151,15 +17112,15 @@
       <c r="N48" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
       <c r="Q48" s="7" t="s">
         <v>306</v>
       </c>
       <c r="R48" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="T48" s="10" t="s">
+      <c r="T48" s="18" t="s">
         <v>293</v>
       </c>
       <c r="U48" s="8" t="s">
@@ -12211,8 +17172,8 @@
         <v>565</v>
       </c>
     </row>
-    <row r="49" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B49" s="10"/>
+    <row r="49" spans="2:36">
+      <c r="B49" s="18"/>
       <c r="C49" s="5" t="s">
         <v>54</v>
       </c>
@@ -12225,7 +17186,7 @@
       <c r="F49" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="11"/>
+      <c r="G49" s="19"/>
       <c r="H49" s="4" t="s">
         <v>253</v>
       </c>
@@ -12247,15 +17208,15 @@
       <c r="N49" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
       <c r="Q49" s="7" t="s">
         <v>30</v>
       </c>
       <c r="R49" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="T49" s="10"/>
+      <c r="T49" s="18"/>
       <c r="U49" s="8" t="s">
         <v>30</v>
       </c>
@@ -12305,8 +17266,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B50" s="10"/>
+    <row r="50" spans="2:36">
+      <c r="B50" s="18"/>
       <c r="C50" s="5" t="s">
         <v>19</v>
       </c>
@@ -12319,7 +17280,7 @@
       <c r="F50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="11"/>
+      <c r="G50" s="19"/>
       <c r="H50" s="4" t="s">
         <v>19</v>
       </c>
@@ -12341,15 +17302,15 @@
       <c r="N50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
       <c r="Q50" s="7" t="s">
         <v>190</v>
       </c>
       <c r="R50" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T50" s="10"/>
+      <c r="T50" s="18"/>
       <c r="U50" s="8" t="s">
         <v>19</v>
       </c>
@@ -12401,27 +17362,29 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="T36:T38"/>
-    <mergeCell ref="T39:T41"/>
-    <mergeCell ref="T42:T44"/>
-    <mergeCell ref="T45:T47"/>
-    <mergeCell ref="T48:T50"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="T24:T26"/>
-    <mergeCell ref="T27:T29"/>
-    <mergeCell ref="T30:T32"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T15:T17"/>
     <mergeCell ref="T33:T35"/>
     <mergeCell ref="P45:P47"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="G48:G50"/>
     <mergeCell ref="O48:O50"/>
     <mergeCell ref="P48:P50"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="T9:T11"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T15:T17"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="F42:F44"/>
@@ -12432,18 +17395,16 @@
     <mergeCell ref="G45:G47"/>
     <mergeCell ref="N45:N47"/>
     <mergeCell ref="O45:O47"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="T24:T26"/>
+    <mergeCell ref="T27:T29"/>
+    <mergeCell ref="T30:T32"/>
+    <mergeCell ref="T36:T38"/>
+    <mergeCell ref="T39:T41"/>
+    <mergeCell ref="T42:T44"/>
+    <mergeCell ref="T45:T47"/>
+    <mergeCell ref="T48:T50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Documents/OppCodes.xlsx
+++ b/Documents/OppCodes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\Gameboy emulator project\HazeEmu\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F65533-F56A-4C31-832B-B585F8A33EEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E284E1-943F-4EE8-9614-6CD81AA9341F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2557,8 +2557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AJ50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R7" workbookViewId="0">
-      <selection activeCell="AA25" sqref="AA25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7463,6 +7463,37 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="T15:T17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="T24:T26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="T27:T29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="T30:T32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="T33:T35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="T36:T38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="T39:T41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="N42:N44"/>
+    <mergeCell ref="P42:P44"/>
+    <mergeCell ref="T42:T44"/>
     <mergeCell ref="T45:T47"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="G48:G50"/>
@@ -7475,37 +7506,6 @@
     <mergeCell ref="N45:N47"/>
     <mergeCell ref="O45:O47"/>
     <mergeCell ref="P45:P47"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="T39:T41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="N42:N44"/>
-    <mergeCell ref="P42:P44"/>
-    <mergeCell ref="T42:T44"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="T30:T32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="T33:T35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="T36:T38"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="T24:T26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="T27:T29"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="T15:T17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="T9:T11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -12432,11 +12432,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
     <mergeCell ref="E27:E29"/>
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="E15:E17"/>
@@ -12448,6 +12443,11 @@
     <mergeCell ref="E30:E32"/>
     <mergeCell ref="E33:E35"/>
     <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -17364,16 +17364,23 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="T36:T38"/>
-    <mergeCell ref="T39:T41"/>
-    <mergeCell ref="T42:T44"/>
-    <mergeCell ref="T45:T47"/>
-    <mergeCell ref="T48:T50"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="T24:T26"/>
-    <mergeCell ref="T27:T29"/>
-    <mergeCell ref="T30:T32"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T15:T17"/>
     <mergeCell ref="T33:T35"/>
     <mergeCell ref="P45:P47"/>
     <mergeCell ref="B48:B50"/>
@@ -17390,23 +17397,16 @@
     <mergeCell ref="G45:G47"/>
     <mergeCell ref="N45:N47"/>
     <mergeCell ref="O45:O47"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="T9:T11"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T15:T17"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="T24:T26"/>
+    <mergeCell ref="T27:T29"/>
+    <mergeCell ref="T30:T32"/>
+    <mergeCell ref="T36:T38"/>
+    <mergeCell ref="T39:T41"/>
+    <mergeCell ref="T42:T44"/>
+    <mergeCell ref="T45:T47"/>
+    <mergeCell ref="T48:T50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Documents/OppCodes.xlsx
+++ b/Documents/OppCodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\Gameboy emulator project\HazeEmu\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E284E1-943F-4EE8-9614-6CD81AA9341F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A6C1AA-320E-4D9C-9ADB-6C5BC215EDCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2557,8 +2557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AJ50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7463,37 +7463,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="T9:T11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="T15:T17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="T24:T26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="T27:T29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="T30:T32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="T33:T35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="T36:T38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="T39:T41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="N42:N44"/>
-    <mergeCell ref="P42:P44"/>
-    <mergeCell ref="T42:T44"/>
     <mergeCell ref="T45:T47"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="G48:G50"/>
@@ -7506,6 +7475,37 @@
     <mergeCell ref="N45:N47"/>
     <mergeCell ref="O45:O47"/>
     <mergeCell ref="P45:P47"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="T39:T41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="N42:N44"/>
+    <mergeCell ref="P42:P44"/>
+    <mergeCell ref="T42:T44"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="T30:T32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="T33:T35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="T36:T38"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="T24:T26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="T27:T29"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="T15:T17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="T9:T11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -12432,6 +12432,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
     <mergeCell ref="E27:E29"/>
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="E15:E17"/>
@@ -12443,11 +12448,6 @@
     <mergeCell ref="E30:E32"/>
     <mergeCell ref="E33:E35"/>
     <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -17364,23 +17364,16 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="T9:T11"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T15:T17"/>
+    <mergeCell ref="T36:T38"/>
+    <mergeCell ref="T39:T41"/>
+    <mergeCell ref="T42:T44"/>
+    <mergeCell ref="T45:T47"/>
+    <mergeCell ref="T48:T50"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="T24:T26"/>
+    <mergeCell ref="T27:T29"/>
+    <mergeCell ref="T30:T32"/>
     <mergeCell ref="T33:T35"/>
     <mergeCell ref="P45:P47"/>
     <mergeCell ref="B48:B50"/>
@@ -17397,16 +17390,23 @@
     <mergeCell ref="G45:G47"/>
     <mergeCell ref="N45:N47"/>
     <mergeCell ref="O45:O47"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="T24:T26"/>
-    <mergeCell ref="T27:T29"/>
-    <mergeCell ref="T30:T32"/>
-    <mergeCell ref="T36:T38"/>
-    <mergeCell ref="T39:T41"/>
-    <mergeCell ref="T42:T44"/>
-    <mergeCell ref="T45:T47"/>
-    <mergeCell ref="T48:T50"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T15:T17"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
